--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895C4BB9-EF19-4310-8C68-7EEB43501AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE3C09-AD85-47E6-AE11-4156B2BD99AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE3C09-AD85-47E6-AE11-4156B2BD99AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7DB7C-4C9F-44C4-B75D-005C193ABE35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Thema:</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Ende</t>
+  </si>
+  <si>
+    <t>pushen</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -113,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -435,7 +442,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,12 +502,22 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43846</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43846</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7DB7C-4C9F-44C4-B75D-005C193ABE35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D3A544-0C28-4059-A6CF-1AF896E0EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D3A544-0C28-4059-A6CF-1AF896E0EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB9E73-B3D9-41D5-82E5-B976D939C951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Thema:</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,9 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitRepos\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB9E73-B3D9-41D5-82E5-B976D939C951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF1809-262C-4513-8AA5-20FC63E8F72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Thema:</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Recherge/Implementieren des adaptiven Headers</t>
+  </si>
+  <si>
+    <t>Navbar implementiren + Design erweitern</t>
   </si>
 </sst>
 </file>
@@ -445,12 +451,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" customWidth="1"/>
+    <col min="3" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -458,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -469,19 +476,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -521,23 +528,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43852</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43858</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43852</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43858</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -545,7 +567,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -553,7 +575,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -561,7 +583,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -569,7 +591,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -577,7 +599,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -585,7 +607,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -593,7 +615,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -601,7 +623,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -609,7 +631,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -617,7 +639,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -625,7 +647,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -633,7 +655,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -641,7 +663,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitRepos\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF1809-262C-4513-8AA5-20FC63E8F72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC2C3D1-2C8D-4773-90C9-0807C28A7526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Thema:</t>
   </si>
@@ -448,7 +448,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,9 @@
       <c r="F10" s="4">
         <v>43858</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -557,7 +559,9 @@
       <c r="F11" s="4">
         <v>43858</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitRepos\Project4BHWII_Webproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC2C3D1-2C8D-4773-90C9-0807C28A7526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9894B7-9934-41BE-8064-4DE470C15560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
+    <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Thema:</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Navbar implementiren + Design erweitern</t>
+  </si>
+  <si>
+    <t>beginn content</t>
+  </si>
+  <si>
+    <t>nav icon home href</t>
   </si>
 </sst>
 </file>
@@ -448,16 +454,16 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.77734375" customWidth="1"/>
-    <col min="3" max="7" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -465,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -476,19 +482,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -528,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -545,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -563,23 +569,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43860</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43866</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43860</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43866</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -587,7 +613,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -595,7 +621,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -603,7 +629,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -611,7 +637,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -619,7 +645,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -627,7 +653,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -635,7 +661,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -643,7 +669,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -651,7 +677,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -659,7 +685,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -667,7 +693,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9894B7-9934-41BE-8064-4DE470C15560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F46482-2A9A-4804-B6C6-299C82FB0272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Thema:</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>nav icon home href</t>
+  </si>
+  <si>
+    <t>footer implementieren</t>
+  </si>
+  <si>
+    <t>login &amp; register</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,19 +612,35 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43860</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43866</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="4">
+        <v>43860</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43866</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F46482-2A9A-4804-B6C6-299C82FB0272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA33B164-400F-4FAD-831D-D09E228E64EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA33B164-400F-4FAD-831D-D09E228E64EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC92AB0-A5E5-46FA-8DC5-878468E25A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Thema:</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>login &amp; register</t>
+  </si>
+  <si>
+    <t>Galerie</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,9 @@
       <c r="F12" s="4">
         <v>43866</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -609,7 +614,9 @@
       <c r="F13" s="4">
         <v>43866</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -625,7 +632,9 @@
       <c r="F14" s="4">
         <v>43866</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -641,15 +650,27 @@
       <c r="F15" s="4">
         <v>43866</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43860</v>
+      </c>
+      <c r="F16" s="4">
+        <v>43866</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC92AB0-A5E5-46FA-8DC5-878468E25A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA694EA4-056C-40DC-B4D9-F41DE5A928D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Thema:</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Galerie</t>
+  </si>
+  <si>
+    <t>Database implementieren</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8D2B57-C319-436A-A09B-403223D06AB2}">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,11 +676,21 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43888</v>
+      </c>
+      <c r="F17" s="4">
+        <v>43902</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA694EA4-056C-40DC-B4D9-F41DE5A928D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244FA368-5F48-42FF-9447-A5CBB761B827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244FA368-5F48-42FF-9447-A5CBB761B827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B2233-8F56-4AFF-91AE-67181C3CB056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
+    <workbookView xWindow="3255" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Thema:</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Database implementieren</t>
+  </si>
+  <si>
+    <t>Forum Database</t>
+  </si>
+  <si>
+    <t>login &amp; register mit db verknüpft</t>
   </si>
 </sst>
 </file>
@@ -465,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8D2B57-C319-436A-A09B-403223D06AB2}">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,22 +697,40 @@
       <c r="F17" s="4">
         <v>43902</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43901</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43908</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="4">
+        <v>43901</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43908</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">

--- a/Aufgabenliste1.xlsx
+++ b/Aufgabenliste1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\Schule\4BHWII\SWP1\WebProject\respo\Project4BHWII_Webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B2233-8F56-4AFF-91AE-67181C3CB056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A51665-B5C1-4272-AA16-68A33F1FFF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
+    <workbookView xWindow="5055" yWindow="855" windowWidth="18210" windowHeight="13605" xr2:uid="{F23AB310-9AEA-4EDF-A171-415F0C0F6266}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Thema:</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>login &amp; register mit db verknüpft</t>
+  </si>
+  <si>
+    <t>Forumsfunktionen erweitern</t>
+  </si>
+  <si>
+    <t>Kontnen/videos/erklärungen zum spiel für alle Seiten</t>
   </si>
 </sst>
 </file>
@@ -471,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8D2B57-C319-436A-A09B-403223D06AB2}">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,19 +740,35 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="4">
+        <v>43908</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43934</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43908</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43934</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
